--- a/app/Биллинг/Счета/detailedBill.xlsx
+++ b/app/Биллинг/Счета/detailedBill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -473,6 +473,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -484,23 +490,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,8 +521,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>310388</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>82296</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,8 +539,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177800" y="6210300"/>
-          <a:ext cx="4666488" cy="2368296"/>
+          <a:off x="155575" y="6588125"/>
+          <a:ext cx="4126738" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -871,23 +876,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="7" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
         <v>12</v>
       </c>
@@ -898,27 +903,27 @@
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" ht="6" customHeight="1"/>
-    <row r="3" spans="1:8">
+    <row r="2" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>0</v>
@@ -930,14 +935,14 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="12" t="s">
         <v>1</v>
       </c>
@@ -946,7 +951,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="10" t="s">
         <v>2</v>
@@ -962,14 +967,14 @@
       </c>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="12" t="s">
         <v>1</v>
       </c>
@@ -978,7 +983,7 @@
       </c>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -988,19 +993,19 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="17">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -1010,7 +1015,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickTop="1">
+    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1020,19 +1025,19 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="33" t="s">
         <v>21</v>
@@ -1044,7 +1049,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1054,7 +1059,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="37">
+    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="14" t="s">
         <v>4</v>
@@ -1076,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>30</v>
       </c>
@@ -1087,14 +1092,14 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="23" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1119,7 +1124,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G21" s="19" t="s">
         <v>10</v>
       </c>
@@ -1127,13 +1132,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G22" s="19"/>
       <c r="H22" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G23" s="21" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14" customHeight="1">
+    <row r="25" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1157,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -1197,7 +1202,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -1214,7 +1219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/app/Биллинг/Счета/detailedBill.xlsx
+++ b/app/Биллинг/Счета/detailedBill.xlsx
@@ -514,15 +514,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>310388</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>396113</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -539,7 +539,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="155575" y="6588125"/>
+          <a:off x="241300" y="5407025"/>
           <a:ext cx="4126738" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>33</v>
       </c>
